--- a/data_excel/接口测试用例_02.xlsx
+++ b/data_excel/接口测试用例_02.xlsx
@@ -81,7 +81,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -101,20 +101,23 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -492,7 +495,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -510,87 +513,87 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="29.25" r="1" s="2">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>序列</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>请求地址</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>请求方式</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>请求参数</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>预期响应关键字</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>用例级别</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>响应报文</t>
         </is>
       </c>
-      <c r="J1" s="8" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>响应时间</t>
         </is>
       </c>
-      <c r="K1" s="8" t="inlineStr">
+      <c r="K1" s="10" t="inlineStr">
         <is>
           <t>状态码</t>
         </is>
       </c>
-      <c r="L1" s="8" t="inlineStr">
+      <c r="L1" s="10" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="57.75" r="2" s="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>快递</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>http://www.kuaidi100.com/query</t>
         </is>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">{
     'User-Agent': "PostmanRuntime/7.15.2",
@@ -612,7 +615,7 @@
  }</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="11" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -622,43 +625,43 @@
           <t>K</t>
         </is>
       </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2020-04-26 02:42:31', 'ftime': '2020-04-26 02:42:31', 'context': '【江门转运中心】 已发出 下一站 【成都转运中心公司】', 'location': ''}, {'time': '2020-04-26 02:20:23', 'ftime': '2020-04-26 02:20:23', 'context': '【江门转运中心公司】 已收入', 'location': ''}, {'time': '2020-04-25 23:42:42', 'ftime': '2020-04-25 23:42:42', 'context': '【广东省中山市中山北】 已发出 下一站 【江门转运中心公司】', 'location': ''}, {'time': '2020-04-25 23:33:49', 'ftime': '2020-04-25 23:33:49', 'context': '【广东省中山市中山北公司】 已打包', 'location': ''}, {'time': '2020-04-25 22:15:15', 'ftime': '2020-04-25 22:15:15', 'context': '【广东省中山市中山北公司】 已收件 取件人: 王慧敏 (15990026269)', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>0.334795</v>
-      </c>
-      <c r="K2" s="3" t="n">
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-09 08:55:26', 'context': '查无结果', 'ftime': '2020-04-09 08:55:26'}]}</t>
+        </is>
+      </c>
+      <c r="J2" s="11" t="n">
+        <v>0.108525</v>
+      </c>
+      <c r="K2" s="11" t="n">
         <v>200</v>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="11" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="51" r="3" s="2">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>楼盘详情 图片列表</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="C3" s="12" t="inlineStr">
         <is>
           <t>https://staging-url-api.huanjutang.com/api2/buildings/images</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">{"X-WX-FakeId":"3179414",
 "Connection": "keep-alive",
@@ -676,7 +679,7 @@
           <t>{'project' : '2674'}</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="11" t="inlineStr">
         <is>
           <t>success</t>
         </is>
@@ -686,53 +689,45 @@
           <t>K</t>
         </is>
       </c>
-      <c r="I3" s="0" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>{'code': 0, 'message': 'success', 'data': []}</t>
         </is>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>0.270147</v>
-      </c>
-      <c r="K3" s="3" t="n">
+      <c r="J3" s="11" t="n">
+        <v>0.276591</v>
+      </c>
+      <c r="K3" s="11" t="n">
         <v>200</v>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="11" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="4" s="2">
-      <c r="A4" s="3" t="n">
+    <row customHeight="1" ht="143" r="4" s="2">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>获取房贷计算机配置（LPR）</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="12" t="inlineStr">
         <is>
           <t>https://staging-url-api.huanjutang.com/api2/mortgage/CalculatorConfig</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{"X-WX-FakeId":"3179414",
-"Connection": "keep-alive",
-"User-Agent": "Mozilla/5.0 (iPhone; CPU iPhone OS 11_0 like Mac OS X) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Mobile/15A372 Safari/604.1 wechatdevtools/1.02.2003242 MicroMessenger/7.0.4 Language/zh_CN webview/",
-"content-type": "application/json",
-"Sec-Fetch-Dest": "empty",
-"Sec-Fetch-Site": "cross-site",
-"Accept": "*/*",
-"Accept-Encoding": "gzip, deflate, br"}
-</t>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>{"X-WX-FakeId":"3179414"}</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
@@ -740,7 +735,7 @@
           <t>{}</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>success</t>
         </is>
@@ -750,18 +745,18 @@
           <t>K</t>
         </is>
       </c>
-      <c r="I4" s="0" t="inlineStr">
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>{'code': 0, 'message': 'success', 'data': {'lpr': [{'id': 2, 'loan_term': '1~5年', 'lpr': 0, 'lpr_content_text': '由银行自主选择', 'created_at': '2019-12-06 09:42:29', 'updated_at': '2019-12-06 09:42:29'}, {'id': 3, 'loan_term': '1年及以内', 'lpr': 4.05, 'lpr_content_text': '4.05%', 'created_at': '2019-12-06 09:43:51', 'updated_at': '2020-02-20 10:48:40'}, {'id': 4, 'loan_term': '五年及以上', 'lpr': 4.66, 'lpr_content_text': '4.655', 'created_at': '2020-04-22 14:25:29', 'updated_at': '2020-04-22 14:25:29'}, {'id': 6, 'loan_term': '3年之内', 'lpr': 3.7, 'lpr_content_text': '3.7', 'created_at': '2020-04-22 14:35:09', 'updated_at': '2020-04-22 14:45:47'}]}}</t>
         </is>
       </c>
-      <c r="J4" s="3" t="n">
-        <v>0.209068</v>
-      </c>
-      <c r="K4" s="3" t="n">
+      <c r="J4" s="11" t="n">
+        <v>0.170471</v>
+      </c>
+      <c r="K4" s="11" t="n">
         <v>200</v>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="11" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -770,7 +765,7 @@
     <row customHeight="1" ht="40" r="5" s="2">
       <c r="A5" s="3" t="n"/>
       <c r="B5" s="0" t="n"/>
-      <c r="C5" s="11" t="n"/>
+      <c r="C5" s="7" t="n"/>
       <c r="D5" s="0" t="n"/>
       <c r="E5" s="6" t="n"/>
       <c r="F5" s="1" t="n"/>
@@ -784,7 +779,7 @@
     <row customHeight="1" ht="40" r="6" s="2">
       <c r="A6" s="3" t="n"/>
       <c r="B6" s="0" t="n"/>
-      <c r="C6" s="11" t="n"/>
+      <c r="C6" s="7" t="n"/>
       <c r="D6" s="0" t="n"/>
       <c r="E6" s="6" t="n"/>
       <c r="F6" s="1" t="n"/>
@@ -798,7 +793,7 @@
     <row customHeight="1" ht="40" r="7" s="2">
       <c r="A7" s="3" t="n"/>
       <c r="B7" s="0" t="n"/>
-      <c r="C7" s="11" t="n"/>
+      <c r="C7" s="7" t="n"/>
       <c r="D7" s="0" t="n"/>
       <c r="E7" s="6" t="n"/>
       <c r="F7" s="1" t="n"/>
@@ -812,7 +807,7 @@
     <row customHeight="1" ht="40" r="8" s="2">
       <c r="A8" s="3" t="n"/>
       <c r="B8" s="0" t="n"/>
-      <c r="C8" s="11" t="n"/>
+      <c r="C8" s="7" t="n"/>
       <c r="D8" s="0" t="n"/>
       <c r="E8" s="6" t="n"/>
       <c r="F8" s="1" t="n"/>
@@ -826,7 +821,7 @@
     <row customHeight="1" ht="40" r="9" s="2">
       <c r="A9" s="3" t="n"/>
       <c r="B9" s="0" t="n"/>
-      <c r="C9" s="11" t="n"/>
+      <c r="C9" s="7" t="n"/>
       <c r="D9" s="0" t="n"/>
       <c r="E9" s="6" t="n"/>
       <c r="F9" s="1" t="n"/>
@@ -840,7 +835,7 @@
     <row customHeight="1" ht="40" r="10" s="2">
       <c r="A10" s="3" t="n"/>
       <c r="B10" s="0" t="n"/>
-      <c r="C10" s="11" t="n"/>
+      <c r="C10" s="7" t="n"/>
       <c r="D10" s="0" t="n"/>
       <c r="E10" s="6" t="n"/>
       <c r="F10" s="1" t="n"/>
@@ -854,7 +849,7 @@
     <row customHeight="1" ht="40" r="11" s="2">
       <c r="A11" s="3" t="n"/>
       <c r="B11" s="0" t="n"/>
-      <c r="C11" s="11" t="n"/>
+      <c r="C11" s="7" t="n"/>
       <c r="D11" s="0" t="n"/>
       <c r="E11" s="6" t="n"/>
       <c r="F11" s="1" t="n"/>
@@ -868,7 +863,7 @@
     <row customHeight="1" ht="40" r="12" s="2">
       <c r="A12" s="3" t="n"/>
       <c r="B12" s="0" t="n"/>
-      <c r="C12" s="11" t="n"/>
+      <c r="C12" s="7" t="n"/>
       <c r="D12" s="0" t="n"/>
       <c r="E12" s="6" t="n"/>
       <c r="F12" s="1" t="n"/>
@@ -882,7 +877,7 @@
     <row customHeight="1" ht="40" r="13" s="2">
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="0" t="n"/>
-      <c r="C13" s="11" t="n"/>
+      <c r="C13" s="7" t="n"/>
       <c r="D13" s="0" t="n"/>
       <c r="E13" s="6" t="n"/>
       <c r="F13" s="1" t="n"/>
@@ -896,7 +891,7 @@
     <row customHeight="1" ht="40" r="14" s="2">
       <c r="A14" s="3" t="n"/>
       <c r="B14" s="0" t="n"/>
-      <c r="C14" s="11" t="n"/>
+      <c r="C14" s="7" t="n"/>
       <c r="D14" s="0" t="n"/>
       <c r="E14" s="6" t="n"/>
       <c r="F14" s="1" t="n"/>
@@ -910,7 +905,7 @@
     <row customHeight="1" ht="40" r="15" s="2">
       <c r="A15" s="3" t="n"/>
       <c r="B15" s="0" t="n"/>
-      <c r="C15" s="11" t="n"/>
+      <c r="C15" s="7" t="n"/>
       <c r="D15" s="0" t="n"/>
       <c r="E15" s="6" t="n"/>
       <c r="F15" s="1" t="n"/>
@@ -924,7 +919,7 @@
     <row customHeight="1" ht="40" r="16" s="2">
       <c r="A16" s="3" t="n"/>
       <c r="B16" s="0" t="n"/>
-      <c r="C16" s="11" t="n"/>
+      <c r="C16" s="7" t="n"/>
       <c r="D16" s="0" t="n"/>
       <c r="E16" s="6" t="n"/>
       <c r="F16" s="1" t="n"/>
@@ -938,7 +933,7 @@
     <row customHeight="1" ht="40" r="17" s="2">
       <c r="A17" s="3" t="n"/>
       <c r="B17" s="0" t="n"/>
-      <c r="C17" s="11" t="n"/>
+      <c r="C17" s="7" t="n"/>
       <c r="D17" s="0" t="n"/>
       <c r="E17" s="6" t="n"/>
       <c r="F17" s="1" t="n"/>
@@ -952,7 +947,7 @@
     <row customHeight="1" ht="40" r="18" s="2">
       <c r="A18" s="3" t="n"/>
       <c r="B18" s="0" t="n"/>
-      <c r="C18" s="11" t="n"/>
+      <c r="C18" s="7" t="n"/>
       <c r="D18" s="0" t="n"/>
       <c r="E18" s="6" t="n"/>
       <c r="F18" s="1" t="n"/>
@@ -966,7 +961,7 @@
     <row customHeight="1" ht="40" r="19" s="2">
       <c r="A19" s="3" t="n"/>
       <c r="B19" s="0" t="n"/>
-      <c r="C19" s="11" t="n"/>
+      <c r="C19" s="7" t="n"/>
       <c r="D19" s="0" t="n"/>
       <c r="E19" s="6" t="n"/>
       <c r="F19" s="1" t="n"/>

--- a/data_excel/接口测试用例_02.xlsx
+++ b/data_excel/接口测试用例_02.xlsx
@@ -627,11 +627,11 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-09 08:55:26', 'context': '查无结果', 'ftime': '2020-04-09 08:55:26'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-04-04 09:10:57', 'context': '查无结果', 'ftime': '2020-04-04 09:10:57'}]}</t>
         </is>
       </c>
       <c r="J2" s="11" t="n">
-        <v>0.108525</v>
+        <v>0.11343</v>
       </c>
       <c r="K2" s="11" t="n">
         <v>200</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="J3" s="11" t="n">
-        <v>0.276591</v>
+        <v>0.263692</v>
       </c>
       <c r="K3" s="11" t="n">
         <v>200</v>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="J4" s="11" t="n">
-        <v>0.170471</v>
+        <v>0.160073</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>200</v>
